--- a/src/main/resources/templates/template.xlsx
+++ b/src/main/resources/templates/template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>用户ID</t>
   </si>
@@ -42,54 +42,34 @@
     <t>联系方式</t>
   </si>
   <si>
-    <t>lisi</t>
-  </si>
-  <si>
-    <t>ls1234</t>
-  </si>
-  <si>
-    <t>李四</t>
+    <t>lpy</t>
+  </si>
+  <si>
+    <t>lpy1234</t>
+  </si>
+  <si>
+    <t>ojm</t>
+  </si>
+  <si>
+    <t>ojm1234</t>
+  </si>
+  <si>
+    <t>张三</t>
   </si>
   <si>
     <t>男</t>
-  </si>
-  <si>
-    <t>zhangsan</t>
-  </si>
-  <si>
-    <t>zs1234</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>wangwu</t>
-  </si>
-  <si>
-    <t>ww1234</t>
-  </si>
-  <si>
-    <t>王五</t>
-  </si>
-  <si>
-    <t>king</t>
-  </si>
-  <si>
-    <t>king1234</t>
-  </si>
-  <si>
-    <t>李哥</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -109,14 +89,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,9 +132,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,7 +156,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,48 +176,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,6 +192,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -220,33 +224,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,17 +432,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,8 +453,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,17 +489,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,7 +502,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,9 +524,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,142 +552,151 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1061,12 +1050,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.6388888888889" customWidth="1"/>
+    <col min="1" max="1" width="14.6388888888889" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.0925925925926" customWidth="1"/>
     <col min="3" max="3" width="33.2685185185185" customWidth="1"/>
     <col min="4" max="4" width="10.0925925925926" customWidth="1"/>
@@ -1075,127 +1064,100 @@
   </cols>
   <sheetData>
     <row r="1" ht="38" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:8">
-      <c r="A2" s="2">
-        <v>1800710101</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="4">
+        <v>1800710131</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="5">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
-        <v>18007101</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2018</v>
+      <c r="E2" s="5">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5">
+        <v>111</v>
       </c>
       <c r="H2">
-        <v>10086</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:8">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>1800710102</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
         <v>18007101</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <v>2018</v>
       </c>
       <c r="H3">
         <v>10010</v>
       </c>
     </row>
-    <row r="4" ht="20" customHeight="1" spans="1:8">
-      <c r="A4" s="2">
-        <v>1800710103</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2">
-        <v>18007101</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2018</v>
-      </c>
-      <c r="H4">
-        <v>110</v>
-      </c>
+    <row r="4" ht="20" customHeight="1" spans="1:7">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:7">
-      <c r="A5" s="2">
-        <v>888888</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
